--- a/public/files/reportFile.xlsx
+++ b/public/files/reportFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Server\mini-market-server\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD844A79-5A89-4FBA-A459-41C2F73155AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4862BF88-A9AF-4830-86A6-497BB684510F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="5" xr2:uid="{29FF0485-8FB1-4B0C-9960-B2EAFFB84CE2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="3" xr2:uid="{29FF0485-8FB1-4B0C-9960-B2EAFFB84CE2}"/>
   </bookViews>
   <sheets>
     <sheet name="DSBH Theo Ngay" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="140">
   <si>
     <t>DOANH SỐ BÁN HÀNG THEO NGÀY</t>
   </si>
@@ -795,9 +795,6 @@
     <t>Đơn vị tính</t>
   </si>
   <si>
-    <t>Số tiền chiết khấu</t>
-  </si>
-  <si>
     <t>Ngân sách tổng</t>
   </si>
   <si>
@@ -820,9 +817,6 @@
   </si>
   <si>
     <t>CAY</t>
-  </si>
-  <si>
-    <t>2.000.000</t>
   </si>
   <si>
     <t>Tổng CTKM</t>
@@ -1516,6 +1510,33 @@
       </rPr>
       <t>(5)</t>
     </r>
+  </si>
+  <si>
+    <t>Tặng sản phẩm</t>
+  </si>
+  <si>
+    <t>Chiếu khấu trên đơn hàng</t>
+  </si>
+  <si>
+    <t>Chiếu khấu trên sản phẩm</t>
+  </si>
+  <si>
+    <t>Tổng tiền đã chiết khấu</t>
+  </si>
+  <si>
+    <t>Phiếu giảm giá</t>
+  </si>
+  <si>
+    <t>SL còn lại</t>
+  </si>
+  <si>
+    <t>Tổng SL</t>
+  </si>
+  <si>
+    <t>Tổng SL đã sử dụng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Từ ngày: 01/08/2019           Đến ngày: 22/10/2019 </t>
   </si>
 </sst>
 </file>
@@ -1529,7 +1550,7 @@
     <numFmt numFmtId="167" formatCode="[$-10409]#,##0.000;\(#,##0.000\);\-"/>
     <numFmt numFmtId="168" formatCode="[$-10409]#,##0.00;\(#,##0.00\);\-"/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1773,6 +1794,18 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1800,7 +1833,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1967,12 +2000,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2067,9 +2126,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2079,9 +2135,6 @@
     <xf numFmtId="0" fontId="26" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2132,6 +2185,12 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2167,7 +2226,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3649,13 +3732,13 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="56"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
@@ -3730,7 +3813,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B1" s="61"/>
       <c r="C1" s="61"/>
@@ -3747,7 +3830,7 @@
     </row>
     <row r="2" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="60" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B2" s="61"/>
       <c r="C2" s="61"/>
@@ -3764,7 +3847,7 @@
     </row>
     <row r="3" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="62" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B3" s="61"/>
       <c r="C3" s="61"/>
@@ -3781,7 +3864,7 @@
     </row>
     <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="63" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B4" s="61"/>
       <c r="C4" s="61"/>
@@ -3798,7 +3881,7 @@
     </row>
     <row r="5" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="64" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B5" s="61"/>
       <c r="C5" s="61"/>
@@ -3815,84 +3898,84 @@
     </row>
     <row r="6" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="D7" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="E7" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="F7" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="E7" s="52" t="s">
+      <c r="G7" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="F7" s="52" t="s">
+      <c r="H7" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="G7" s="52" t="s">
+      <c r="I7" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="H7" s="52" t="s">
+      <c r="J7" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="I7" s="52" t="s">
+      <c r="K7" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="J7" s="52" t="s">
+      <c r="L7" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="K7" s="52" t="s">
+      <c r="M7" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="L7" s="52" t="s">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="55">
+        <v>1</v>
+      </c>
+      <c r="B8" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="M7" s="52" t="s">
+      <c r="C8" s="51" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="57">
-        <v>1</v>
-      </c>
-      <c r="B8" s="53" t="s">
+      <c r="D8" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="E8" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="F8" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="E8" s="53" t="s">
+      <c r="G8" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="F8" s="53" t="s">
+      <c r="H8" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="G8" s="53" t="s">
+      <c r="I8" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="H8" s="53" t="s">
-        <v>126</v>
-      </c>
-      <c r="I8" s="53" t="s">
-        <v>127</v>
-      </c>
-      <c r="J8" s="53" t="s">
-        <v>127</v>
-      </c>
-      <c r="K8" s="54">
+      <c r="J8" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="K8" s="52">
         <v>145900</v>
       </c>
-      <c r="L8" s="54">
+      <c r="L8" s="52">
         <v>0</v>
       </c>
-      <c r="M8" s="54">
+      <c r="M8" s="52">
         <v>145900</v>
       </c>
     </row>
@@ -3943,7 +4026,7 @@
   </sheetPr>
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -4070,10 +4153,10 @@
         <v>47</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>34</v>
@@ -4082,10 +4165,10 @@
         <v>35</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L8" s="13" t="s">
         <v>36</v>
@@ -4153,7 +4236,7 @@
       <c r="G10" s="66"/>
       <c r="H10" s="66"/>
       <c r="I10" s="67"/>
-      <c r="J10" s="51"/>
+      <c r="J10" s="49"/>
       <c r="K10" s="26"/>
       <c r="L10" s="26"/>
       <c r="M10" s="27">
@@ -4215,183 +4298,302 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="34" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" style="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.5703125" style="34" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="34" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="34" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" style="34" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" style="34" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" style="34" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" style="34" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="34" customWidth="1"/>
+    <col min="5" max="5" width="18" style="34" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" style="34" customWidth="1"/>
+    <col min="7" max="7" width="36.5703125" style="34" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" style="34" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" style="34" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" style="34" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" style="34" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" style="34" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="34" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.5703125" style="34" customWidth="1"/>
+    <col min="10" max="10" width="21" style="34" customWidth="1"/>
+    <col min="11" max="11" width="26.85546875" style="34" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" style="34" customWidth="1"/>
+    <col min="13" max="13" width="19" style="34" customWidth="1"/>
     <col min="14" max="14" width="18.28515625" style="34" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" style="34" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23" style="34" customWidth="1"/>
     <col min="16" max="16" width="14.42578125" style="34" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="20.42578125" style="34" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="16.140625" style="34" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="9.140625" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+    <row r="1" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+    </row>
+    <row r="2" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+    </row>
+    <row r="3" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-    </row>
-    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="32"/>
-      <c r="K2" s="33"/>
-    </row>
-    <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="32"/>
-      <c r="K3" s="33"/>
-    </row>
-    <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="D4" s="31"/>
-      <c r="E4" s="32"/>
-      <c r="K4" s="33"/>
-    </row>
-    <row r="5" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+    </row>
+    <row r="4" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="78" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+    </row>
+    <row r="5" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D5" s="31"/>
+      <c r="E5" s="32"/>
+      <c r="K5" s="33"/>
+    </row>
+    <row r="6" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="31"/>
+      <c r="E6" s="72" t="s">
+        <v>131</v>
+      </c>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="J6" s="73" t="s">
+        <v>132</v>
+      </c>
+      <c r="K6" s="74"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="72" t="s">
+        <v>135</v>
+      </c>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
+    </row>
+    <row r="7" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="C7" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="D7" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="E7" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="F7" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="39" t="s">
+      <c r="G7" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="G5" s="39" t="s">
+      <c r="H7" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="39" t="s">
+      <c r="I7" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="I5" s="39" t="s">
+      <c r="J7" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="K7" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="J5" s="40" t="s">
+      <c r="L7" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="K5" s="40" t="s">
+      <c r="M7" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="L5" s="40" t="s">
+      <c r="N7" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="O7" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="P7" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q7" s="38" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="57"/>
+      <c r="B8" s="39" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
+      <c r="C8" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="D8" s="40">
+        <v>44571</v>
+      </c>
+      <c r="E8" s="40">
+        <v>44844</v>
+      </c>
+      <c r="F8" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="42">
-        <v>44571</v>
-      </c>
-      <c r="D6" s="42">
-        <v>44844</v>
-      </c>
-      <c r="E6" s="41" t="s">
+      <c r="G8" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="F6" s="41" t="s">
+      <c r="H8" s="39">
+        <v>20</v>
+      </c>
+      <c r="I8" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="G6" s="41">
+      <c r="J8" s="39"/>
+      <c r="K8" s="39">
         <v>20</v>
       </c>
-      <c r="H6" s="41" t="s">
+      <c r="L8" s="39">
+        <v>15</v>
+      </c>
+      <c r="M8" s="39">
+        <f>K8-L8</f>
+        <v>5</v>
+      </c>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39">
+        <v>20</v>
+      </c>
+      <c r="P8" s="39">
+        <v>15</v>
+      </c>
+      <c r="Q8" s="39">
+        <f>O8-P8</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41">
-        <v>20</v>
-      </c>
-      <c r="K6" s="41">
-        <v>15</v>
-      </c>
-      <c r="L6" s="41">
-        <f>J6-K6</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="37" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36">
-        <v>20</v>
-      </c>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="J7" s="35">
-        <v>120</v>
-      </c>
-      <c r="K7" s="35">
-        <v>120</v>
-      </c>
-      <c r="L7" s="35">
+      <c r="B9" s="71"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" s="37" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35">
+        <v>0</v>
+      </c>
+      <c r="K9" s="35">
+        <v>0</v>
+      </c>
+      <c r="L9" s="35">
+        <v>0</v>
+      </c>
+      <c r="M9" s="35">
+        <v>0</v>
+      </c>
+      <c r="N9" s="35">
+        <v>0</v>
+      </c>
+      <c r="O9" s="35">
+        <v>0</v>
+      </c>
+      <c r="P9" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="37"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:L1"/>
+  <mergeCells count="8">
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A4:P4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4406,7 +4608,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A6" sqref="A6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4483,13 +4685,13 @@
         <v>25</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G8" s="13" t="s">
         <v>26</v>
@@ -4517,14 +4719,14 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="73"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="81"/>
       <c r="G10" s="17">
         <v>0</v>
       </c>
@@ -4557,7 +4759,7 @@
   </sheetPr>
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
@@ -4578,264 +4780,264 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="85" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+    </row>
+    <row r="2" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="85" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+    </row>
+    <row r="3" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="85" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="86"/>
+    </row>
+    <row r="4" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="85" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="86"/>
+      <c r="O4" s="86"/>
+      <c r="P4" s="86"/>
+    </row>
+    <row r="5" spans="1:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="86"/>
+    </row>
+    <row r="6" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="88" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-    </row>
-    <row r="2" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="78"/>
-      <c r="P2" s="78"/>
-    </row>
-    <row r="3" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="77" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="78"/>
-    </row>
-    <row r="4" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="86"/>
+      <c r="O6" s="86"/>
+      <c r="P6" s="86"/>
+    </row>
+    <row r="7" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78"/>
-      <c r="O4" s="78"/>
-      <c r="P4" s="78"/>
-    </row>
-    <row r="5" spans="1:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79" t="s">
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
-      <c r="L5" s="78"/>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="78"/>
-    </row>
-    <row r="6" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="80" t="s">
-        <v>99</v>
-      </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="78"/>
-      <c r="N6" s="78"/>
-      <c r="O6" s="78"/>
-      <c r="P6" s="78"/>
-    </row>
-    <row r="7" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I7" s="76" t="s">
+      <c r="M7" s="84"/>
+      <c r="N7" s="84"/>
+      <c r="O7" s="84" t="s">
         <v>76</v>
       </c>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
-      <c r="L7" s="76" t="s">
+      <c r="P7" s="84"/>
+      <c r="Q7" s="84"/>
+    </row>
+    <row r="8" spans="1:17" ht="33" x14ac:dyDescent="0.25">
+      <c r="A8" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="M7" s="76"/>
-      <c r="N7" s="76"/>
-      <c r="O7" s="76" t="s">
+      <c r="B8" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="P7" s="76"/>
-      <c r="Q7" s="76"/>
-    </row>
-    <row r="8" spans="1:17" ht="33" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
+      <c r="E8" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="43" t="s">
+      <c r="F8" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="G8" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="F8" s="43" t="s">
+      <c r="H8" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="G8" s="43" t="s">
+      <c r="I8" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="H8" s="43" t="s">
+      <c r="J8" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="I8" s="43" t="s">
+      <c r="K8" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="J8" s="43" t="s">
+      <c r="L8" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="K8" s="44" t="s">
+      <c r="M8" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="L8" s="43" t="s">
+      <c r="N8" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="M8" s="43" t="s">
+      <c r="O8" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="N8" s="44" t="s">
+      <c r="P8" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="O8" s="43" t="s">
+      <c r="Q8" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="P8" s="43" t="s">
+    </row>
+    <row r="9" spans="1:17" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="43">
+        <v>1</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="Q8" s="44" t="s">
+      <c r="D9" s="43">
+        <v>4032312</v>
+      </c>
+      <c r="E9" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="43" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="45">
-        <v>1</v>
-      </c>
-      <c r="B9" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="45" t="s">
+      <c r="G9" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="43"/>
+      <c r="I9" s="45">
+        <v>86</v>
+      </c>
+      <c r="J9" s="45">
+        <v>0</v>
+      </c>
+      <c r="K9" s="46"/>
+      <c r="L9" s="45">
+        <v>13</v>
+      </c>
+      <c r="M9" s="45">
+        <v>14</v>
+      </c>
+      <c r="N9" s="46"/>
+      <c r="O9" s="45">
+        <v>72</v>
+      </c>
+      <c r="P9" s="45">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="46"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="45">
-        <v>4032312</v>
-      </c>
-      <c r="E9" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="G9" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="45"/>
-      <c r="I9" s="47">
-        <v>86</v>
-      </c>
-      <c r="J9" s="47">
+      <c r="B10" s="82"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48">
         <v>0</v>
       </c>
-      <c r="K9" s="48"/>
-      <c r="L9" s="47">
-        <v>13</v>
-      </c>
-      <c r="M9" s="47">
-        <v>14</v>
-      </c>
-      <c r="N9" s="48"/>
-      <c r="O9" s="47">
-        <v>72</v>
-      </c>
-      <c r="P9" s="47">
-        <v>10</v>
-      </c>
-      <c r="Q9" s="48"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="74" t="s">
-        <v>96</v>
-      </c>
-      <c r="B10" s="74"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50">
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48">
         <v>0</v>
       </c>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50">
-        <v>0</v>
-      </c>
-      <c r="O10" s="50"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="50">
+      <c r="O10" s="48"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="48">
         <v>0</v>
       </c>
     </row>

--- a/public/files/reportFile.xlsx
+++ b/public/files/reportFile.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Server\mini-market-server\public\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HocKi8\KhoaLuanTN\mini-market-server\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4862BF88-A9AF-4830-86A6-497BB684510F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E1484A-AB6C-42A4-9071-0A9349A0968C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="3" xr2:uid="{29FF0485-8FB1-4B0C-9960-B2EAFFB84CE2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="3" xr2:uid="{29FF0485-8FB1-4B0C-9960-B2EAFFB84CE2}"/>
   </bookViews>
   <sheets>
     <sheet name="DSBH Theo Ngay" sheetId="1" r:id="rId1"/>
@@ -2031,7 +2031,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2114,12 +2114,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2280,6 +2274,9 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3656,59 +3653,59 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" style="4" customWidth="1"/>
     <col min="2" max="2" width="18" style="4" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="24.42578125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="21.26953125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15.453125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="24.453125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="22.1796875" style="4" customWidth="1"/>
     <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="59" t="s">
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="5"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -3731,16 +3728,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="54"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="52"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+    </row>
+    <row r="9" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
@@ -3759,20 +3756,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="14.5" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B12" s="12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B13" s="12"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B14" s="12"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B15" s="12"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B16" s="12"/>
     </row>
   </sheetData>
@@ -3796,211 +3793,211 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" style="2" customWidth="1"/>
     <col min="3" max="3" width="19" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" style="2" customWidth="1"/>
-    <col min="10" max="13" width="16.7109375" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="8.7109375" style="2"/>
+    <col min="4" max="4" width="12.26953125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.54296875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.54296875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.81640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.7265625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="19.1796875" style="2" customWidth="1"/>
+    <col min="10" max="13" width="16.7265625" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-    </row>
-    <row r="2" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+    </row>
+    <row r="2" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-    </row>
-    <row r="3" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="s">
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+    </row>
+    <row r="3" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-    </row>
-    <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="63" t="s">
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+    </row>
+    <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="61" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-    </row>
-    <row r="5" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="64" t="s">
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+    </row>
+    <row r="5" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="62" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-    </row>
-    <row r="6" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50" t="s">
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+    </row>
+    <row r="6" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F7" s="50" t="s">
+      <c r="F7" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="G7" s="50" t="s">
+      <c r="G7" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="H7" s="50" t="s">
+      <c r="H7" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="I7" s="50" t="s">
+      <c r="I7" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="J7" s="50" t="s">
+      <c r="J7" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="K7" s="50" t="s">
+      <c r="K7" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="L7" s="50" t="s">
+      <c r="L7" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="M7" s="50" t="s">
+      <c r="M7" s="48" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="55">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="53">
         <v>1</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="E8" s="51" t="s">
+      <c r="E8" s="49" t="s">
         <v>121</v>
       </c>
-      <c r="F8" s="51" t="s">
+      <c r="F8" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="G8" s="51" t="s">
+      <c r="G8" s="49" t="s">
         <v>123</v>
       </c>
-      <c r="H8" s="51" t="s">
+      <c r="H8" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="I8" s="51" t="s">
+      <c r="I8" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="J8" s="51" t="s">
+      <c r="J8" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="K8" s="52">
+      <c r="K8" s="50">
         <v>145900</v>
       </c>
-      <c r="L8" s="52">
+      <c r="L8" s="50">
         <v>0</v>
       </c>
-      <c r="M8" s="52">
+      <c r="M8" s="50">
         <v>145900</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B12" s="12"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B13" s="12"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B14" s="12"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B15" s="12"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="4"/>
     </row>
   </sheetData>
@@ -4030,113 +4027,113 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="40.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="16.5703125" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="1" width="4.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.26953125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.1796875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.54296875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.7265625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="40.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.1796875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="8.1796875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.7265625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="16.54296875" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="s">
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="62" t="s">
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-    </row>
-    <row r="5" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="68" t="s">
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+    </row>
+    <row r="5" spans="1:14" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="69" t="s">
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-    </row>
-    <row r="7" spans="1:14" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
+    </row>
+    <row r="7" spans="1:14" s="19" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
     </row>
-    <row r="8" spans="1:14" ht="36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>32</v>
       </c>
@@ -4180,7 +4177,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>1</v>
       </c>
@@ -4224,19 +4221,19 @@
         <v>10581818.181818182</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="65" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="66"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="49"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="47"/>
       <c r="K10" s="26"/>
       <c r="L10" s="26"/>
       <c r="M10" s="27">
@@ -4246,7 +4243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -4261,7 +4258,7 @@
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
     </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I20" s="30" t="s">
         <v>43</v>
       </c>
@@ -4301,299 +4298,316 @@
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:P3"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="34" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" style="34" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" style="34" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" style="34" customWidth="1"/>
-    <col min="5" max="5" width="18" style="34" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" style="34" customWidth="1"/>
-    <col min="7" max="7" width="36.5703125" style="34" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="34" customWidth="1"/>
-    <col min="9" max="9" width="33.5703125" style="34" customWidth="1"/>
-    <col min="10" max="10" width="21" style="34" customWidth="1"/>
-    <col min="11" max="11" width="26.85546875" style="34" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" style="34" customWidth="1"/>
-    <col min="13" max="13" width="19" style="34" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" style="34" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23" style="34" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="34" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.42578125" style="34" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.140625" style="34" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="34"/>
+    <col min="1" max="1" width="11.1796875" style="32" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" style="32" customWidth="1"/>
+    <col min="3" max="3" width="31.453125" style="32" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" style="32" customWidth="1"/>
+    <col min="5" max="5" width="18" style="32" customWidth="1"/>
+    <col min="6" max="6" width="22.54296875" style="32" customWidth="1"/>
+    <col min="7" max="7" width="36.54296875" style="32" customWidth="1"/>
+    <col min="8" max="8" width="12.81640625" style="32" customWidth="1"/>
+    <col min="9" max="9" width="33.54296875" style="32" customWidth="1"/>
+    <col min="10" max="10" width="21" style="32" customWidth="1"/>
+    <col min="11" max="11" width="26.81640625" style="32" customWidth="1"/>
+    <col min="12" max="12" width="20.7265625" style="32" customWidth="1"/>
+    <col min="13" max="13" width="19" style="32" customWidth="1"/>
+    <col min="14" max="14" width="18.26953125" style="32" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23" style="32" customWidth="1"/>
+    <col min="16" max="16" width="14.453125" style="32" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.453125" style="32" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.1796875" style="32" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.1796875" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+    <row r="1" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-    </row>
-    <row r="2" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+    </row>
+    <row r="2" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-    </row>
-    <row r="3" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="77" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+    </row>
+    <row r="3" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="77"/>
-    </row>
-    <row r="4" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="75"/>
+    </row>
+    <row r="4" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="76" t="s">
         <v>139</v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
-    </row>
-    <row r="5" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="D5" s="31"/>
-      <c r="E5" s="32"/>
-      <c r="K5" s="33"/>
-    </row>
-    <row r="6" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+    </row>
+    <row r="5" spans="1:17" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="87"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="87"/>
+    </row>
+    <row r="6" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D6" s="31"/>
-      <c r="E6" s="72" t="s">
+      <c r="E6" s="70" t="s">
         <v>131</v>
       </c>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="56" t="s">
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="J6" s="73" t="s">
+      <c r="J6" s="71" t="s">
         <v>132</v>
       </c>
-      <c r="K6" s="74"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="72" t="s">
+      <c r="K6" s="72"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
-    </row>
-    <row r="7" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="70"/>
+    </row>
+    <row r="7" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="38" t="s">
+      <c r="F7" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="38" t="s">
+      <c r="G7" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="H7" s="38" t="s">
+      <c r="H7" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="38" t="s">
+      <c r="I7" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="J7" s="38" t="s">
+      <c r="J7" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="K7" s="38" t="s">
+      <c r="K7" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="L7" s="38" t="s">
+      <c r="L7" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="M7" s="38" t="s">
+      <c r="M7" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="N7" s="38" t="s">
+      <c r="N7" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="O7" s="38" t="s">
+      <c r="O7" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="P7" s="38" t="s">
+      <c r="P7" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="Q7" s="38" t="s">
+      <c r="Q7" s="36" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="57"/>
-      <c r="B8" s="39" t="s">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A8" s="55"/>
+      <c r="B8" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="40">
+      <c r="D8" s="38">
         <v>44571</v>
       </c>
-      <c r="E8" s="40">
+      <c r="E8" s="38">
         <v>44844</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="39" t="s">
+      <c r="G8" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="H8" s="39">
+      <c r="H8" s="37">
         <v>20</v>
       </c>
-      <c r="I8" s="39" t="s">
+      <c r="I8" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39">
+      <c r="J8" s="37"/>
+      <c r="K8" s="37">
         <v>20</v>
       </c>
-      <c r="L8" s="39">
+      <c r="L8" s="37">
         <v>15</v>
       </c>
-      <c r="M8" s="39">
+      <c r="M8" s="37">
         <f>K8-L8</f>
         <v>5</v>
       </c>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39">
+      <c r="N8" s="37"/>
+      <c r="O8" s="37">
         <v>20</v>
       </c>
-      <c r="P8" s="39">
+      <c r="P8" s="37">
         <v>15</v>
       </c>
-      <c r="Q8" s="39">
+      <c r="Q8" s="37">
         <f>O8-P8</f>
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="70" t="s">
+    <row r="9" spans="1:17" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="71"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35">
+      <c r="B9" s="69"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33">
         <v>0</v>
       </c>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35">
+      <c r="I9" s="33"/>
+      <c r="J9" s="33">
         <v>0</v>
       </c>
-      <c r="K9" s="35">
+      <c r="K9" s="33">
         <v>0</v>
       </c>
-      <c r="L9" s="35">
+      <c r="L9" s="33">
         <v>0</v>
       </c>
-      <c r="M9" s="35">
+      <c r="M9" s="33">
         <v>0</v>
       </c>
-      <c r="N9" s="35">
+      <c r="N9" s="33">
         <v>0</v>
       </c>
-      <c r="O9" s="35">
+      <c r="O9" s="33">
         <v>0</v>
       </c>
-      <c r="P9" s="35">
+      <c r="P9" s="33">
         <v>0</v>
       </c>
-      <c r="Q9" s="35">
+      <c r="Q9" s="33">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
+    <row r="10" spans="1:17" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="E6:H6"/>
     <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:P6"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:P2"/>
-    <mergeCell ref="A3:P3"/>
     <mergeCell ref="A4:P4"/>
+    <mergeCell ref="A3:Q3"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="A5:Q5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4611,70 +4625,70 @@
       <selection activeCell="A6" sqref="A6:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="41.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="1" width="8.26953125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="41.26953125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7265625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.81640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.1796875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-    </row>
-    <row r="2" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+    </row>
+    <row r="2" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-    </row>
-    <row r="3" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="s">
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+    </row>
+    <row r="3" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-    </row>
-    <row r="4" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="62" t="s">
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+    </row>
+    <row r="4" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-    </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="63" t="s">
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+    </row>
+    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-    </row>
-    <row r="6" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="64" t="s">
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+    </row>
+    <row r="6" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-    </row>
-    <row r="7" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+    </row>
+    <row r="7" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" ht="23" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>23</v>
       </c>
@@ -4697,7 +4711,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>1</v>
       </c>
@@ -4718,20 +4732,20 @@
         <v>67076066.200000003</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="79" t="s">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="80"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="81"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="79"/>
       <c r="G10" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F11" s="18"/>
     </row>
   </sheetData>
@@ -4763,281 +4777,281 @@
       <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" style="1" customWidth="1"/>
-    <col min="6" max="10" width="9.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.453125" style="1" customWidth="1"/>
+    <col min="6" max="10" width="9.7265625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.7265625" style="1" customWidth="1"/>
     <col min="12" max="13" width="11" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7265625" style="1" customWidth="1"/>
     <col min="15" max="16" width="11" style="1" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.7109375" style="1"/>
+    <col min="17" max="17" width="15.7265625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+    <row r="1" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-    </row>
-    <row r="2" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+    </row>
+    <row r="2" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="83" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
-    </row>
-    <row r="3" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+    </row>
+    <row r="3" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="83" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="86"/>
-    </row>
-    <row r="4" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+    </row>
+    <row r="4" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
-      <c r="N4" s="86"/>
-      <c r="O4" s="86"/>
-      <c r="P4" s="86"/>
-    </row>
-    <row r="5" spans="1:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87" t="s">
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
+    </row>
+    <row r="5" spans="1:17" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="86"/>
-    </row>
-    <row r="6" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="88" t="s">
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="84"/>
+    </row>
+    <row r="6" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="86" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="86"/>
-      <c r="O6" s="86"/>
-      <c r="P6" s="86"/>
-    </row>
-    <row r="7" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I7" s="84" t="s">
+      <c r="B6" s="86"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="84"/>
+      <c r="O6" s="84"/>
+      <c r="P6" s="84"/>
+    </row>
+    <row r="7" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I7" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="J7" s="84"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="84" t="s">
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="M7" s="84"/>
-      <c r="N7" s="84"/>
-      <c r="O7" s="84" t="s">
+      <c r="M7" s="82"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="P7" s="84"/>
-      <c r="Q7" s="84"/>
-    </row>
-    <row r="8" spans="1:17" ht="33" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
+      <c r="P7" s="82"/>
+      <c r="Q7" s="82"/>
+    </row>
+    <row r="8" spans="1:17" ht="33" x14ac:dyDescent="0.35">
+      <c r="A8" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="41" t="s">
+      <c r="E8" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="F8" s="41" t="s">
+      <c r="F8" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="G8" s="41" t="s">
+      <c r="G8" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="H8" s="41" t="s">
+      <c r="H8" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="I8" s="41" t="s">
+      <c r="I8" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="J8" s="41" t="s">
+      <c r="J8" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="K8" s="42" t="s">
+      <c r="K8" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="L8" s="41" t="s">
+      <c r="L8" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="M8" s="41" t="s">
+      <c r="M8" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="N8" s="42" t="s">
+      <c r="N8" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="O8" s="41" t="s">
+      <c r="O8" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="P8" s="41" t="s">
+      <c r="P8" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="Q8" s="42" t="s">
+      <c r="Q8" s="40" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="43">
+    <row r="9" spans="1:17" ht="26" x14ac:dyDescent="0.35">
+      <c r="A9" s="41">
         <v>1</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="43">
+      <c r="D9" s="41">
         <v>4032312</v>
       </c>
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="43" t="s">
+      <c r="F9" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="G9" s="43" t="s">
+      <c r="G9" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="H9" s="43"/>
-      <c r="I9" s="45">
+      <c r="H9" s="41"/>
+      <c r="I9" s="43">
         <v>86</v>
       </c>
-      <c r="J9" s="45">
+      <c r="J9" s="43">
         <v>0</v>
       </c>
-      <c r="K9" s="46"/>
-      <c r="L9" s="45">
+      <c r="K9" s="44"/>
+      <c r="L9" s="43">
         <v>13</v>
       </c>
-      <c r="M9" s="45">
+      <c r="M9" s="43">
         <v>14</v>
       </c>
-      <c r="N9" s="46"/>
-      <c r="O9" s="45">
+      <c r="N9" s="44"/>
+      <c r="O9" s="43">
         <v>72</v>
       </c>
-      <c r="P9" s="45">
+      <c r="P9" s="43">
         <v>10</v>
       </c>
-      <c r="Q9" s="46"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="82" t="s">
+      <c r="Q9" s="44"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A10" s="80" t="s">
         <v>94</v>
       </c>
-      <c r="B10" s="82"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48">
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46">
         <v>0</v>
       </c>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48">
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46">
         <v>0</v>
       </c>
-      <c r="O10" s="48"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="48">
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="46">
         <v>0</v>
       </c>
     </row>

--- a/public/files/reportFile.xlsx
+++ b/public/files/reportFile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HocKi8\KhoaLuanTN\mini-market-server\public\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Server\mini-market-server\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E1484A-AB6C-42A4-9071-0A9349A0968C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CFAC18-CC54-480B-8BFD-3DBB06306683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="3" xr2:uid="{29FF0485-8FB1-4B0C-9960-B2EAFFB84CE2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="3" xr2:uid="{29FF0485-8FB1-4B0C-9960-B2EAFFB84CE2}"/>
   </bookViews>
   <sheets>
     <sheet name="DSBH Theo Ngay" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="143">
   <si>
     <t>DOANH SỐ BÁN HÀNG THEO NGÀY</t>
   </si>
@@ -1537,6 +1537,15 @@
   </si>
   <si>
     <t xml:space="preserve">Từ ngày: 01/08/2019           Đến ngày: 22/10/2019 </t>
+  </si>
+  <si>
+    <t>Mã SP</t>
+  </si>
+  <si>
+    <t>Tên SP</t>
+  </si>
+  <si>
+    <t>Lon</t>
   </si>
 </sst>
 </file>
@@ -1550,7 +1559,7 @@
     <numFmt numFmtId="167" formatCode="[$-10409]#,##0.000;\(#,##0.000\);\-"/>
     <numFmt numFmtId="168" formatCode="[$-10409]#,##0.00;\(#,##0.00\);\-"/>
   </numFmts>
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1806,8 +1815,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1830,6 +1845,30 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF68F676"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2031,7 +2070,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2180,9 +2219,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2220,32 +2256,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
@@ -2275,8 +2296,47 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="40" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2285,6 +2345,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFD5B095"/>
+      <color rgb="FF68F676"/>
+      <color rgb="FFFF3300"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3653,59 +3720,59 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="4" customWidth="1"/>
     <col min="2" max="2" width="18" style="4" customWidth="1"/>
-    <col min="3" max="3" width="21.26953125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="24.453125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="22.1796875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" style="4" customWidth="1"/>
     <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="56" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="57" t="s">
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -3728,7 +3795,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="52"/>
       <c r="B8" s="51"/>
       <c r="C8" s="51"/>
@@ -3737,7 +3804,7 @@
       <c r="F8" s="51"/>
       <c r="G8" s="51"/>
     </row>
-    <row r="9" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
@@ -3756,20 +3823,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="14.5" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="12"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="12"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="12"/>
     </row>
   </sheetData>
@@ -3793,108 +3860,108 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.7265625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="19" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.54296875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.54296875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.81640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.7265625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="19.1796875" style="2" customWidth="1"/>
-    <col min="10" max="13" width="16.7265625" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="8.7265625" style="2"/>
+    <col min="4" max="4" width="12.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" style="2" customWidth="1"/>
+    <col min="10" max="13" width="16.7109375" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="57" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-    </row>
-    <row r="2" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+    </row>
+    <row r="2" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-    </row>
-    <row r="3" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="60" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+    </row>
+    <row r="3" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-    </row>
-    <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="61" t="s">
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+    </row>
+    <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="60" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-    </row>
-    <row r="5" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="62" t="s">
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+    </row>
+    <row r="5" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="61" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-    </row>
-    <row r="6" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+    </row>
+    <row r="6" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="48" t="s">
         <v>105</v>
       </c>
@@ -3935,7 +4002,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="53">
         <v>1</v>
       </c>
@@ -3976,28 +4043,28 @@
         <v>145900</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" s="12"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" s="12"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" s="12"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
     </row>
   </sheetData>
@@ -4023,117 +4090,117 @@
   </sheetPr>
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.453125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.26953125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.1796875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.54296875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.7265625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="40.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.453125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.1796875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="8.1796875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="10.7265625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="16.54296875" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="4.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="40.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="16.5703125" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="60" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="60" t="s">
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="60" t="s">
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-    </row>
-    <row r="5" spans="1:14" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="66" t="s">
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+    </row>
+    <row r="5" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="67" t="s">
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="67"/>
-    </row>
-    <row r="7" spans="1:14" s="19" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+    </row>
+    <row r="7" spans="1:14" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
     </row>
-    <row r="8" spans="1:14" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="36" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>32</v>
       </c>
@@ -4177,7 +4244,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>1</v>
       </c>
@@ -4221,18 +4288,18 @@
         <v>10581818.181818182</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="63" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="65"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="64"/>
       <c r="J10" s="47"/>
       <c r="K10" s="26"/>
       <c r="L10" s="26"/>
@@ -4243,7 +4310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -4258,7 +4325,7 @@
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
     </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I20" s="30" t="s">
         <v>43</v>
       </c>
@@ -4295,160 +4362,183 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" style="32" customWidth="1"/>
-    <col min="2" max="2" width="22.54296875" style="32" customWidth="1"/>
-    <col min="3" max="3" width="31.453125" style="32" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" style="32" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="32" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" style="32" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" style="32" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="32" customWidth="1"/>
     <col min="5" max="5" width="18" style="32" customWidth="1"/>
-    <col min="6" max="6" width="22.54296875" style="32" customWidth="1"/>
-    <col min="7" max="7" width="36.54296875" style="32" customWidth="1"/>
-    <col min="8" max="8" width="12.81640625" style="32" customWidth="1"/>
-    <col min="9" max="9" width="33.54296875" style="32" customWidth="1"/>
-    <col min="10" max="10" width="21" style="32" customWidth="1"/>
-    <col min="11" max="11" width="26.81640625" style="32" customWidth="1"/>
-    <col min="12" max="12" width="20.7265625" style="32" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" style="32" customWidth="1"/>
+    <col min="7" max="7" width="36.5703125" style="32" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="32" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" style="32" customWidth="1"/>
+    <col min="10" max="10" width="23" style="32" customWidth="1"/>
+    <col min="11" max="11" width="34.140625" style="32" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" style="32" customWidth="1"/>
     <col min="13" max="13" width="19" style="32" customWidth="1"/>
-    <col min="14" max="14" width="18.26953125" style="32" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23" style="32" customWidth="1"/>
-    <col min="16" max="16" width="14.453125" style="32" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.453125" style="32" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.1796875" style="32" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.1796875" style="32"/>
+    <col min="14" max="14" width="18.28515625" style="32" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.28515625" style="32" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="32" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" style="32" customWidth="1"/>
+    <col min="18" max="18" width="14.140625" style="32" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" style="32"/>
+    <col min="20" max="20" width="15" style="32" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="74" t="s">
+    <row r="1" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-    </row>
-    <row r="2" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="74" t="s">
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+    </row>
+    <row r="2" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
-    </row>
-    <row r="3" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="75" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+    </row>
+    <row r="3" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
-    </row>
-    <row r="4" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="76" t="s">
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="69"/>
+      <c r="S3" s="69"/>
+      <c r="T3" s="69"/>
+    </row>
+    <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="68" t="s">
         <v>139</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="75"/>
-      <c r="P4" s="75"/>
-    </row>
-    <row r="5" spans="1:17" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="87"/>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="87"/>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="87"/>
-    </row>
-    <row r="6" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="68"/>
+      <c r="S4" s="68"/>
+      <c r="T4" s="68"/>
+    </row>
+    <row r="5" spans="1:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="70"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="70"/>
+    </row>
+    <row r="6" spans="1:20" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="31"/>
-      <c r="E6" s="70" t="s">
+      <c r="E6" s="88" t="s">
         <v>131</v>
       </c>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="54" t="s">
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="86" t="s">
         <v>133</v>
       </c>
-      <c r="J6" s="71" t="s">
+      <c r="K6" s="81"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="87"/>
+      <c r="N6" s="85" t="s">
         <v>132</v>
       </c>
-      <c r="K6" s="72"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="70" t="s">
+      <c r="O6" s="85"/>
+      <c r="P6" s="85"/>
+      <c r="Q6" s="82" t="s">
         <v>135</v>
       </c>
-      <c r="N6" s="70"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="70"/>
-    </row>
-    <row r="7" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="R6" s="83"/>
+      <c r="S6" s="83"/>
+      <c r="T6" s="84"/>
+    </row>
+    <row r="7" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
         <v>77</v>
       </c>
@@ -4471,38 +4561,47 @@
         <v>59</v>
       </c>
       <c r="H7" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="36" t="s">
+      <c r="J7" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="K7" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="L7" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="J7" s="36" t="s">
+      <c r="M7" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="K7" s="36" t="s">
+      <c r="N7" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="L7" s="36" t="s">
+      <c r="O7" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="M7" s="36" t="s">
+      <c r="P7" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="N7" s="36" t="s">
+      <c r="Q7" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="O7" s="36" t="s">
+      <c r="R7" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="P7" s="36" t="s">
+      <c r="S7" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="Q7" s="36" t="s">
+      <c r="T7" s="36" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A8" s="55"/>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="54"/>
       <c r="B8" s="37" t="s">
         <v>65</v>
       </c>
@@ -4521,75 +4620,81 @@
       <c r="G8" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="H8" s="37">
+      <c r="H8" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="I8" s="37">
         <v>20</v>
       </c>
-      <c r="I8" s="37" t="s">
-        <v>69</v>
-      </c>
       <c r="J8" s="37"/>
-      <c r="K8" s="37">
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="92">
+        <v>11111</v>
+      </c>
+      <c r="N8" s="92">
+        <v>11111</v>
+      </c>
+      <c r="O8" s="92">
+        <v>11111</v>
+      </c>
+      <c r="P8" s="92">
+        <v>11111</v>
+      </c>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37">
         <v>20</v>
       </c>
-      <c r="L8" s="37">
+      <c r="S8" s="37">
         <v>15</v>
       </c>
-      <c r="M8" s="37">
-        <f>K8-L8</f>
-        <v>5</v>
-      </c>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37">
-        <v>20</v>
-      </c>
-      <c r="P8" s="37">
-        <v>15</v>
-      </c>
-      <c r="Q8" s="37">
-        <f>O8-P8</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" s="34" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="68" t="s">
+      <c r="T8" s="92">
+        <v>11111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" s="34" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="69"/>
+      <c r="B9" s="91"/>
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
       <c r="F9" s="33"/>
       <c r="G9" s="33"/>
-      <c r="H9" s="33">
-        <v>0</v>
-      </c>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33">
-        <v>0</v>
-      </c>
-      <c r="K9" s="33">
-        <v>0</v>
-      </c>
-      <c r="L9" s="33">
-        <v>0</v>
-      </c>
-      <c r="M9" s="33">
-        <v>0</v>
-      </c>
-      <c r="N9" s="33">
-        <v>0</v>
-      </c>
-      <c r="O9" s="33">
-        <v>0</v>
-      </c>
-      <c r="P9" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H9" s="33"/>
+      <c r="I9" s="93">
+        <v>11111</v>
+      </c>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="94">
+        <v>11111</v>
+      </c>
+      <c r="N9" s="94">
+        <v>11111</v>
+      </c>
+      <c r="O9" s="94">
+        <v>11111</v>
+      </c>
+      <c r="P9" s="94">
+        <v>11111</v>
+      </c>
+      <c r="Q9" s="94">
+        <v>11111</v>
+      </c>
+      <c r="R9" s="94">
+        <v>11111</v>
+      </c>
+      <c r="S9" s="94">
+        <v>11111</v>
+      </c>
+      <c r="T9" s="94">
+        <v>11111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" s="34" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A10" s="35"/>
       <c r="B10" s="35"/>
       <c r="C10" s="35"/>
@@ -4599,15 +4704,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="A3:Q3"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="A5:Q5"/>
+    <mergeCell ref="A5:T5"/>
+    <mergeCell ref="A3:T3"/>
+    <mergeCell ref="A4:T4"/>
+    <mergeCell ref="A2:T2"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="J6:M6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4625,70 +4730,70 @@
       <selection activeCell="A6" sqref="A6:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.26953125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="41.26953125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7265625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.81640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21.1796875" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="8.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="41.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-    </row>
-    <row r="2" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="60" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+    </row>
+    <row r="2" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-    </row>
-    <row r="3" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="60" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+    </row>
+    <row r="3" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-    </row>
-    <row r="4" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="60" t="s">
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+    </row>
+    <row r="4" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-    </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="61" t="s">
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+    </row>
+    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-    </row>
-    <row r="6" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="62" t="s">
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+    </row>
+    <row r="6" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-    </row>
-    <row r="7" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" ht="23" x14ac:dyDescent="0.3">
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+    </row>
+    <row r="7" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>23</v>
       </c>
@@ -4711,7 +4816,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>1</v>
       </c>
@@ -4732,20 +4837,20 @@
         <v>67076066.200000003</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="77" t="s">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="78"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="79"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="73"/>
       <c r="G10" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F11" s="18"/>
     </row>
   </sheetData>
@@ -4773,164 +4878,164 @@
   </sheetPr>
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28.453125" style="1" customWidth="1"/>
-    <col min="6" max="10" width="9.7265625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.7265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" style="1" customWidth="1"/>
+    <col min="6" max="10" width="9.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" style="1" customWidth="1"/>
     <col min="12" max="13" width="11" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7265625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
     <col min="15" max="16" width="11" style="1" customWidth="1"/>
-    <col min="17" max="17" width="15.7265625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.7265625" style="1"/>
+    <col min="17" max="17" width="15.7109375" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="83" t="s">
+    <row r="1" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="77" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-    </row>
-    <row r="2" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="83" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+    </row>
+    <row r="2" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-    </row>
-    <row r="3" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="83" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+    </row>
+    <row r="3" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-    </row>
-    <row r="4" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="83" t="s">
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="78"/>
+    </row>
+    <row r="4" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="84"/>
-      <c r="N4" s="84"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="84"/>
-    </row>
-    <row r="5" spans="1:17" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="85" t="s">
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="78"/>
+      <c r="O4" s="78"/>
+      <c r="P4" s="78"/>
+    </row>
+    <row r="5" spans="1:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="84"/>
-    </row>
-    <row r="6" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="86" t="s">
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="78"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="78"/>
+    </row>
+    <row r="6" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="84"/>
-      <c r="O6" s="84"/>
-      <c r="P6" s="84"/>
-    </row>
-    <row r="7" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="I7" s="82" t="s">
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="78"/>
+      <c r="O6" s="78"/>
+      <c r="P6" s="78"/>
+    </row>
+    <row r="7" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="J7" s="82"/>
-      <c r="K7" s="82"/>
-      <c r="L7" s="82" t="s">
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="M7" s="82"/>
-      <c r="N7" s="82"/>
-      <c r="O7" s="82" t="s">
+      <c r="M7" s="76"/>
+      <c r="N7" s="76"/>
+      <c r="O7" s="76" t="s">
         <v>76</v>
       </c>
-      <c r="P7" s="82"/>
-      <c r="Q7" s="82"/>
-    </row>
-    <row r="8" spans="1:17" ht="33" x14ac:dyDescent="0.35">
+      <c r="P7" s="76"/>
+      <c r="Q7" s="76"/>
+    </row>
+    <row r="8" spans="1:17" ht="33" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="s">
         <v>77</v>
       </c>
@@ -4983,7 +5088,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="41">
         <v>1</v>
       </c>
@@ -5028,16 +5133,16 @@
       </c>
       <c r="Q9" s="44"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A10" s="80" t="s">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="B10" s="80"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
       <c r="H10" s="45"/>
       <c r="I10" s="46"/>
       <c r="J10" s="46"/>

--- a/public/files/reportFile.xlsx
+++ b/public/files/reportFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Server\mini-market-server\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CFAC18-CC54-480B-8BFD-3DBB06306683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75AD1E39-B51D-4D91-8F5F-E98C1E6332EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="3" xr2:uid="{29FF0485-8FB1-4B0C-9960-B2EAFFB84CE2}"/>
   </bookViews>
@@ -1559,7 +1559,7 @@
     <numFmt numFmtId="167" formatCode="[$-10409]#,##0.000;\(#,##0.000\);\-"/>
     <numFmt numFmtId="168" formatCode="[$-10409]#,##0.00;\(#,##0.00\);\-"/>
   </numFmts>
-  <fonts count="41" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1815,12 +1815,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -2070,7 +2064,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2222,6 +2216,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2257,16 +2260,46 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
@@ -2295,48 +2328,6 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="40" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3748,26 +3739,26 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
@@ -3876,89 +3867,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
     </row>
     <row r="2" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
     </row>
     <row r="3" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
     </row>
     <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="63" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
     </row>
     <row r="5" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="64" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
     </row>
     <row r="6" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4114,84 +4105,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="66"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
     </row>
     <row r="7" spans="1:14" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B7" s="20"/>
@@ -4289,17 +4280,17 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="64"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="67"/>
       <c r="J10" s="47"/>
       <c r="K10" s="26"/>
       <c r="L10" s="26"/>
@@ -4364,8 +4355,8 @@
   </sheetPr>
   <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4394,100 +4385,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
     </row>
     <row r="2" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
     </row>
     <row r="3" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="69"/>
-      <c r="S3" s="69"/>
-      <c r="T3" s="69"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="71"/>
+      <c r="T3" s="71"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="68"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="72"/>
+      <c r="T4" s="72"/>
     </row>
     <row r="5" spans="1:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="70"/>
@@ -4513,30 +4504,30 @@
     </row>
     <row r="6" spans="1:20" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="31"/>
-      <c r="E6" s="88" t="s">
+      <c r="E6" s="74" t="s">
         <v>131</v>
       </c>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="86" t="s">
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="81" t="s">
         <v>133</v>
       </c>
-      <c r="K6" s="81"/>
-      <c r="L6" s="81"/>
-      <c r="M6" s="87"/>
-      <c r="N6" s="85" t="s">
+      <c r="K6" s="82"/>
+      <c r="L6" s="82"/>
+      <c r="M6" s="83"/>
+      <c r="N6" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="O6" s="85"/>
-      <c r="P6" s="85"/>
-      <c r="Q6" s="82" t="s">
+      <c r="O6" s="77"/>
+      <c r="P6" s="77"/>
+      <c r="Q6" s="78" t="s">
         <v>135</v>
       </c>
-      <c r="R6" s="83"/>
-      <c r="S6" s="83"/>
-      <c r="T6" s="84"/>
+      <c r="R6" s="79"/>
+      <c r="S6" s="79"/>
+      <c r="T6" s="80"/>
     </row>
     <row r="7" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
@@ -4629,16 +4620,16 @@
       <c r="J8" s="37"/>
       <c r="K8" s="37"/>
       <c r="L8" s="37"/>
-      <c r="M8" s="92">
+      <c r="M8" s="56">
         <v>11111</v>
       </c>
-      <c r="N8" s="92">
+      <c r="N8" s="56">
         <v>11111</v>
       </c>
-      <c r="O8" s="92">
+      <c r="O8" s="56">
         <v>11111</v>
       </c>
-      <c r="P8" s="92">
+      <c r="P8" s="56">
         <v>11111</v>
       </c>
       <c r="Q8" s="37"/>
@@ -4648,7 +4639,7 @@
       <c r="S8" s="37">
         <v>15</v>
       </c>
-      <c r="T8" s="92">
+      <c r="T8" s="56">
         <v>11111</v>
       </c>
     </row>
@@ -4656,41 +4647,41 @@
       <c r="A9" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="91"/>
+      <c r="B9" s="55"/>
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
       <c r="F9" s="33"/>
       <c r="G9" s="33"/>
       <c r="H9" s="33"/>
-      <c r="I9" s="93">
+      <c r="I9" s="57">
         <v>11111</v>
       </c>
       <c r="J9" s="33"/>
       <c r="K9" s="33"/>
       <c r="L9" s="33"/>
-      <c r="M9" s="94">
+      <c r="M9" s="57">
         <v>11111</v>
       </c>
-      <c r="N9" s="94">
+      <c r="N9" s="57">
         <v>11111</v>
       </c>
-      <c r="O9" s="94">
+      <c r="O9" s="57">
         <v>11111</v>
       </c>
-      <c r="P9" s="94">
+      <c r="P9" s="57">
         <v>11111</v>
       </c>
-      <c r="Q9" s="94">
+      <c r="Q9" s="57">
         <v>11111</v>
       </c>
-      <c r="R9" s="94">
+      <c r="R9" s="57">
         <v>11111</v>
       </c>
-      <c r="S9" s="94">
+      <c r="S9" s="57">
         <v>11111</v>
       </c>
-      <c r="T9" s="94">
+      <c r="T9" s="57">
         <v>11111</v>
       </c>
     </row>
@@ -4704,15 +4695,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="J6:M6"/>
     <mergeCell ref="A5:T5"/>
     <mergeCell ref="A3:T3"/>
     <mergeCell ref="A4:T4"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A1:T1"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="J6:M6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4743,54 +4734,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
     </row>
     <row r="2" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
     </row>
     <row r="3" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
     </row>
     <row r="4" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
     </row>
     <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
     </row>
     <row r="6" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
     </row>
     <row r="7" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:7" ht="24" x14ac:dyDescent="0.25">
@@ -4838,14 +4829,14 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="73"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="86"/>
       <c r="G10" s="17">
         <v>0</v>
       </c>
@@ -4899,141 +4890,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
     </row>
     <row r="2" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="90" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="78"/>
-      <c r="P2" s="78"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
     </row>
     <row r="3" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="78"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
     </row>
     <row r="4" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="90" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78"/>
-      <c r="O4" s="78"/>
-      <c r="P4" s="78"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="91"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="91"/>
+      <c r="P4" s="91"/>
     </row>
     <row r="5" spans="1:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
-      <c r="L5" s="78"/>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="78"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="91"/>
     </row>
     <row r="6" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="93" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="78"/>
-      <c r="N6" s="78"/>
-      <c r="O6" s="78"/>
-      <c r="P6" s="78"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="91"/>
+      <c r="O6" s="91"/>
+      <c r="P6" s="91"/>
     </row>
     <row r="7" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I7" s="76" t="s">
+      <c r="I7" s="89" t="s">
         <v>74</v>
       </c>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
-      <c r="L7" s="76" t="s">
+      <c r="J7" s="89"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="89" t="s">
         <v>75</v>
       </c>
-      <c r="M7" s="76"/>
-      <c r="N7" s="76"/>
-      <c r="O7" s="76" t="s">
+      <c r="M7" s="89"/>
+      <c r="N7" s="89"/>
+      <c r="O7" s="89" t="s">
         <v>76</v>
       </c>
-      <c r="P7" s="76"/>
-      <c r="Q7" s="76"/>
+      <c r="P7" s="89"/>
+      <c r="Q7" s="89"/>
     </row>
     <row r="8" spans="1:17" ht="33" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="s">
@@ -5134,15 +5125,15 @@
       <c r="Q9" s="44"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="74" t="s">
+      <c r="A10" s="87" t="s">
         <v>94</v>
       </c>
-      <c r="B10" s="74"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
       <c r="H10" s="45"/>
       <c r="I10" s="46"/>
       <c r="J10" s="46"/>
